--- a/testers.xlsx
+++ b/testers.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Tester Name</t>
   </si>
@@ -32,6 +32,18 @@
   </si>
   <si>
     <t>Will Cronkhite</t>
+  </si>
+  <si>
+    <t>Alex Grable</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @happinessfacade</t>
+  </si>
+  <si>
+    <t>Max Hares</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @oi_llimixam</t>
   </si>
 </sst>
 </file>
@@ -373,16 +385,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -409,6 +421,22 @@
         <v>4</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/testers.xlsx
+++ b/testers.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Tester Name</t>
   </si>
@@ -44,6 +44,12 @@
   </si>
   <si>
     <t xml:space="preserve"> @oi_llimixam</t>
+  </si>
+  <si>
+    <t>Graham</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> @ImGOwenDude</t>
   </si>
 </sst>
 </file>
@@ -385,10 +391,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -437,6 +443,14 @@
         <v>9</v>
       </c>
     </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
